--- a/spliced/struggle/2023-04-11_10-25-25/data_selected.xlsx
+++ b/spliced/struggle/2023-04-11_10-25-25/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1035,6 +1035,286 @@
         <v>0.0531452745199203</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>4.677844420075353</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-3.651133604347696</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-7.842656075954431</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.7247915863990784</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-2.964529037475586</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-2.036930084228516</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-2.627654522657398</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-2.928949266672134</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4.230176210403448</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.9755517840385436</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-3.013092756271362</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.1954768747091293</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-4.852406792342663</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.3913787733763447</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.2968738228082666</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.0148134818300604</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-4.330729007720947</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.6641632318496704</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.301035702228551</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3.64691380783915</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-6.109266191720954</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.2535090744495392</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-4.50192403793335</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.8677340745925903</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2.465943455696097</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-2.991184197366218</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-3.608212560415278</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.0308486949652433</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-3.680310487747192</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.009607553482056</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-1.307898223400096</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-2.068972408771528</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-0.7334359884262174</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.2924517393112182</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.6568328738212585</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.4216497242450714</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-1.702915767207749</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-0.5735956337302961</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-0.9715757742524092</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.683863639831543</v>
+      </c>
+      <c r="G28" t="n">
+        <v>4.383111000061035</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-1.505782842636108</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-3.414293382316824</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.2869436666369428</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-0.1008520126342796</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.6068946123123169</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4.862334728240967</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.4990769028663635</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-3.79365611076355</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.782416181638838</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.588389292359353</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.4978551864624023</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3.975052833557129</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.3481931984424591</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-3.179930865764618</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.5433011054992622</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2.409818679094315</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.299934834241867</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.433395266532898</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.5711590051651001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
